--- a/All_Schema(2).xlsx
+++ b/All_Schema(2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12108" windowHeight="19140"/>
+    <workbookView windowWidth="23148" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="355">
   <si>
     <t>User</t>
   </si>
@@ -92,7 +92,7 @@
     <t>createdAt</t>
   </si>
   <si>
-    <t>DATETIME</t>
+    <t>DATE</t>
   </si>
   <si>
     <t>注册时间</t>
@@ -146,9 +146,6 @@
     <t>birthday</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>生日</t>
   </si>
   <si>
@@ -192,6 +189,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>购物车中商品</t>
     </r>
     <r>
@@ -593,7 +596,7 @@
     <t>price</t>
   </si>
   <si>
-    <t>DECIMAL(10,2)</t>
+    <t>NUMBER(10,2)</t>
   </si>
   <si>
     <t>售价</t>
@@ -617,7 +620,7 @@
     <t>月销量</t>
   </si>
   <si>
-    <t>DECIMAL(5,2)</t>
+    <t>NUMBER(5,2)</t>
   </si>
   <si>
     <t>好评率</t>
@@ -959,9 +962,6 @@
     <t>assignedAt</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -1013,7 +1013,7 @@
     <t>onTimeRate</t>
   </si>
   <si>
-    <t>decimal</t>
+    <t>NUMBER</t>
   </si>
   <si>
     <t>5,2</t>
@@ -1155,7 +1155,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,13 +1192,6 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1654,148 +1647,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2208,8 +2201,8 @@
   </sheetPr>
   <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2303,9 +2296,7 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
@@ -2469,17 +2460,17 @@
         <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" ht="20.25" customHeight="1" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>17</v>
@@ -2488,13 +2479,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" ht="20.25" customHeight="1" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
@@ -2503,10 +2494,10 @@
         <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:5">
@@ -2518,7 +2509,7 @@
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -2561,7 +2552,7 @@
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>7</v>
@@ -2570,22 +2561,22 @@
         <v>32</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:4">
@@ -2596,7 +2587,7 @@
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -2622,7 +2613,7 @@
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>7</v>
@@ -2631,7 +2622,7 @@
         <v>32</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>9</v>
@@ -2651,12 +2642,12 @@
         <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>7</v>
@@ -2665,15 +2656,15 @@
         <v>32</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>7</v>
@@ -2682,22 +2673,22 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:4">
       <c r="A34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:4">
@@ -2708,7 +2699,7 @@
     </row>
     <row r="36" ht="18.75" customHeight="1" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -2734,7 +2725,7 @@
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>7</v>
@@ -2743,7 +2734,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>9</v>
@@ -2751,7 +2742,7 @@
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>7</v>
@@ -2760,15 +2751,15 @@
         <v>20</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>7</v>
@@ -2777,55 +2768,55 @@
         <v>20</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1" spans="1:4">
       <c r="A41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C41" s="8">
         <v>65535</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1" spans="1:4">
       <c r="A42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="C42" s="8">
         <v>10</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" spans="1:4">
       <c r="A44" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>17</v>
@@ -2834,19 +2825,19 @@
         <v>3</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1" spans="1:4">
@@ -2857,7 +2848,7 @@
     </row>
     <row r="47" ht="18.75" customHeight="1" spans="1:5">
       <c r="A47" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -2883,7 +2874,7 @@
     </row>
     <row r="49" ht="18.75" customHeight="1" spans="1:5">
       <c r="A49" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>7</v>
@@ -2892,7 +2883,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>9</v>
@@ -2900,7 +2891,7 @@
     </row>
     <row r="50" ht="18.75" customHeight="1" spans="1:5">
       <c r="A50" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>7</v>
@@ -2909,15 +2900,15 @@
         <v>20</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>11</v>
@@ -2926,26 +2917,26 @@
         <v>20</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="8">
         <v>10</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>17</v>
@@ -2954,19 +2945,19 @@
         <v>3</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" ht="18.75" customHeight="1" spans="1:4">
@@ -2977,7 +2968,7 @@
     </row>
     <row r="56" ht="18.75" customHeight="1" spans="1:5">
       <c r="A56" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -3003,7 +2994,7 @@
     </row>
     <row r="58" ht="18.75" customHeight="1" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>7</v>
@@ -3012,7 +3003,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>9</v>
@@ -3020,7 +3011,7 @@
     </row>
     <row r="59" ht="18.75" customHeight="1" spans="1:4">
       <c r="A59" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>17</v>
@@ -3029,24 +3020,24 @@
         <v>3</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" ht="18.75" customHeight="1" spans="1:4">
       <c r="A60" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" ht="18.75" customHeight="1" spans="1:4">
       <c r="A61" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>11</v>
@@ -3055,15 +3046,15 @@
         <v>20</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="18.75" customHeight="1" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="8">
         <v>65535</v>
@@ -3074,7 +3065,7 @@
     </row>
     <row r="63" ht="18.75" customHeight="1" spans="1:5">
       <c r="A63" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>7</v>
@@ -3083,10 +3074,10 @@
         <v>20</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" ht="18.75" customHeight="1" spans="1:4">
@@ -3097,7 +3088,7 @@
     </row>
     <row r="65" ht="18.75" customHeight="1" spans="1:5">
       <c r="A65" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -3123,7 +3114,7 @@
     </row>
     <row r="67" ht="18.75" customHeight="1" spans="1:5">
       <c r="A67" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>7</v>
@@ -3132,7 +3123,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>9</v>
@@ -3152,12 +3143,12 @@
         <v>8</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" ht="18.75" customHeight="1" spans="1:4">
       <c r="A69" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>11</v>
@@ -3166,12 +3157,12 @@
         <v>50</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" ht="18.75" customHeight="1" spans="1:4">
       <c r="A70" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>11</v>
@@ -3180,12 +3171,12 @@
         <v>20</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" ht="18.75" customHeight="1" spans="1:4">
       <c r="A71" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>11</v>
@@ -3194,12 +3185,12 @@
         <v>200</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" ht="18.75" customHeight="1" spans="1:5">
       <c r="A72" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>17</v>
@@ -3208,10 +3199,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="73" ht="18.75" customHeight="1" spans="1:4">
@@ -3222,7 +3213,7 @@
     </row>
     <row r="74" ht="18.75" customHeight="1" spans="1:5">
       <c r="A74" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -3248,7 +3239,7 @@
     </row>
     <row r="76" ht="18.75" customHeight="1" spans="1:5">
       <c r="A76" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>7</v>
@@ -3257,7 +3248,7 @@
         <v>20</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>9</v>
@@ -3265,7 +3256,7 @@
     </row>
     <row r="77" ht="18.75" customHeight="1" spans="1:5">
       <c r="A77" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>7</v>
@@ -3274,15 +3265,15 @@
         <v>20</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1" spans="1:5">
       <c r="A78" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>7</v>
@@ -3291,15 +3282,15 @@
         <v>20</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" ht="18.75" customHeight="1" spans="1:5">
       <c r="A79" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>17</v>
@@ -3308,22 +3299,22 @@
         <v>3</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="80" ht="18.75" customHeight="1" spans="1:4">
       <c r="A80" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" ht="18.75" customHeight="1" spans="1:5">
@@ -3337,10 +3328,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="82" ht="18.75" customHeight="1" spans="1:4">
@@ -3352,7 +3343,7 @@
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" ht="18.75" customHeight="1" spans="1:4">
@@ -3363,7 +3354,7 @@
     </row>
     <row r="84" ht="18.75" customHeight="1" spans="1:5">
       <c r="A84" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -3389,7 +3380,7 @@
     </row>
     <row r="86" ht="18.75" customHeight="1" spans="1:5">
       <c r="A86" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>7</v>
@@ -3398,7 +3389,7 @@
         <v>20</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>9</v>
@@ -3406,7 +3397,7 @@
     </row>
     <row r="87" ht="18.75" customHeight="1" spans="1:5">
       <c r="A87" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>7</v>
@@ -3415,10 +3406,10 @@
         <v>20</v>
       </c>
       <c r="D87" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1" spans="1:5">
@@ -3435,12 +3426,12 @@
         <v>8</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" ht="18.75" customHeight="1" spans="1:5">
       <c r="A89" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>17</v>
@@ -3449,27 +3440,27 @@
         <v>3</v>
       </c>
       <c r="D89" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="90" ht="18.75" customHeight="1" spans="1:4">
       <c r="A90" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="18.75" customHeight="1" spans="1:5">
       <c r="A91" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>17</v>
@@ -3478,22 +3469,22 @@
         <v>3</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" ht="18.75" customHeight="1" spans="1:4">
       <c r="A92" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" ht="18.75" customHeight="1" spans="1:4">
@@ -3504,7 +3495,7 @@
     </row>
     <row r="94" ht="18.75" customHeight="1" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -3530,7 +3521,7 @@
     </row>
     <row r="96" ht="18.75" customHeight="1" spans="1:5">
       <c r="A96" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>7</v>
@@ -3539,7 +3530,7 @@
         <v>20</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>9</v>
@@ -3547,7 +3538,7 @@
     </row>
     <row r="97" ht="18.75" customHeight="1" spans="1:4">
       <c r="A97" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>7</v>
@@ -3556,12 +3547,12 @@
         <v>20</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" ht="18.75" customHeight="1" spans="1:4">
       <c r="A98" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>7</v>
@@ -3570,19 +3561,19 @@
         <v>20</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" ht="18.75" customHeight="1" spans="1:4">
       <c r="A99" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" ht="18.75" customHeight="1" spans="1:4">
@@ -3593,7 +3584,7 @@
     </row>
     <row r="101" ht="18.75" customHeight="1" spans="1:5">
       <c r="A101" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -3619,7 +3610,7 @@
     </row>
     <row r="103" ht="18.75" customHeight="1" spans="1:5">
       <c r="A103" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>7</v>
@@ -3628,7 +3619,7 @@
         <v>20</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>9</v>
@@ -3636,7 +3627,7 @@
     </row>
     <row r="104" ht="18.75" customHeight="1" spans="1:4">
       <c r="A104" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>11</v>
@@ -3645,24 +3636,24 @@
         <v>255</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" ht="18.75" customHeight="1" spans="1:4">
       <c r="A105" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" ht="18.75" customHeight="1" spans="1:4">
       <c r="A106" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>17</v>
@@ -3671,36 +3662,36 @@
         <v>3</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" ht="18.75" customHeight="1" spans="1:4">
       <c r="A107" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" ht="18.75" customHeight="1" spans="1:4">
       <c r="A108" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" ht="18.75" customHeight="1" spans="1:5">
       <c r="A109" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>7</v>
@@ -3709,15 +3700,15 @@
         <v>20</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" ht="18.75" customHeight="1" spans="1:5">
       <c r="A110" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>7</v>
@@ -3726,10 +3717,10 @@
         <v>20</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" ht="18.75" customHeight="1" spans="1:4">
@@ -3740,7 +3731,7 @@
     </row>
     <row r="112" ht="18.75" customHeight="1" spans="1:5">
       <c r="A112" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -3766,7 +3757,7 @@
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:5">
       <c r="A114" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>7</v>
@@ -3775,7 +3766,7 @@
         <v>20</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>9</v>
@@ -3783,7 +3774,7 @@
     </row>
     <row r="115" ht="18.75" customHeight="1" spans="1:5">
       <c r="A115" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>7</v>
@@ -3792,15 +3783,15 @@
         <v>20</v>
       </c>
       <c r="D115" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="116" ht="18.75" customHeight="1" spans="1:4">
       <c r="A116" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>11</v>
@@ -3809,40 +3800,40 @@
         <v>20</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" ht="18.75" customHeight="1" spans="1:4">
       <c r="A117" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="C117" s="8">
         <v>10</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" ht="18.75" customHeight="1" spans="1:4">
       <c r="A118" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C118" s="8">
         <v>10</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" ht="18.75" customHeight="1" spans="1:4">
       <c r="A119" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>11</v>
@@ -3851,40 +3842,40 @@
         <v>20</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" ht="18.75" customHeight="1" spans="1:4">
       <c r="A120" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C120" s="8">
         <v>10</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" ht="18.75" customHeight="1" spans="1:4">
       <c r="A121" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C121" s="8">
         <v>5</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" ht="18.75" customHeight="1" spans="1:4">
       <c r="A122" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>17</v>
@@ -3893,12 +3884,12 @@
         <v>3</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" ht="18.75" customHeight="1" spans="1:5">
       <c r="A123" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>7</v>
@@ -3907,24 +3898,24 @@
         <v>20</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" ht="18.75" customHeight="1" spans="1:4">
       <c r="A124" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C124" s="8">
         <v>10</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" ht="18.75" customHeight="1" spans="1:4">
@@ -3935,7 +3926,7 @@
     </row>
     <row r="126" ht="18.75" customHeight="1" spans="1:5">
       <c r="A126" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -3961,7 +3952,7 @@
     </row>
     <row r="128" ht="18.75" customHeight="1" spans="1:5">
       <c r="A128" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>7</v>
@@ -3970,7 +3961,7 @@
         <v>20</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>9</v>
@@ -3978,7 +3969,7 @@
     </row>
     <row r="129" ht="18.75" customHeight="1" spans="1:4">
       <c r="A129" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>11</v>
@@ -3987,7 +3978,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" ht="18.75" customHeight="1" spans="1:4">
@@ -4001,12 +3992,12 @@
         <v>3</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" ht="18.75" customHeight="1" spans="1:4">
       <c r="A131" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>11</v>
@@ -4015,12 +4006,12 @@
         <v>20</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" ht="18.75" customHeight="1" spans="1:4">
       <c r="A132" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>11</v>
@@ -4029,7 +4020,7 @@
         <v>20</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" ht="18.75" customHeight="1" spans="1:4">
@@ -4040,7 +4031,7 @@
     </row>
     <row r="134" ht="18.75" customHeight="1" spans="1:5">
       <c r="A134" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -4066,14 +4057,14 @@
     </row>
     <row r="136" ht="18.75" customHeight="1" spans="1:5">
       <c r="A136" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>9</v>
@@ -4081,35 +4072,35 @@
     </row>
     <row r="137" ht="18.75" customHeight="1" spans="1:4">
       <c r="A137" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C137" s="8">
         <v>10</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" ht="18.75" customHeight="1" spans="1:4">
       <c r="A138" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C138" s="8">
         <v>10</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" ht="18.75" customHeight="1" spans="1:5">
       <c r="A139" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>7</v>
@@ -4118,10 +4109,10 @@
         <v>20</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" ht="18.75" customHeight="1" spans="1:4">
@@ -4132,7 +4123,7 @@
     </row>
     <row r="141" ht="18.75" customHeight="1" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -4158,7 +4149,7 @@
     </row>
     <row r="143" ht="18.75" customHeight="1" spans="1:5">
       <c r="A143" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>7</v>
@@ -4167,7 +4158,7 @@
         <v>20</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>9</v>
@@ -4175,85 +4166,85 @@
     </row>
     <row r="144" ht="18.75" customHeight="1" spans="1:4">
       <c r="A144" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" ht="18.75" customHeight="1" spans="1:4">
       <c r="A145" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" ht="18.75" customHeight="1" spans="1:4">
       <c r="A146" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C146" s="8">
         <v>10</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" ht="18.75" customHeight="1" spans="1:4">
       <c r="A147" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C147" s="8">
         <v>10</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="148" ht="18.75" customHeight="1" spans="1:4">
       <c r="A148" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C148" s="8">
         <v>10</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" ht="18.75" customHeight="1" spans="1:4">
       <c r="A149" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150" ht="18.75" customHeight="1" spans="1:5">
       <c r="A150" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>7</v>
@@ -4262,10 +4253,10 @@
         <v>20</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" ht="18.75" customHeight="1" spans="1:4">
@@ -4276,7 +4267,7 @@
     </row>
     <row r="152" ht="18.75" customHeight="1" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -4302,7 +4293,7 @@
     </row>
     <row r="154" ht="18.75" customHeight="1" spans="1:5">
       <c r="A154" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>7</v>
@@ -4311,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>9</v>
@@ -4319,7 +4310,7 @@
     </row>
     <row r="155" ht="18.75" customHeight="1" spans="1:4">
       <c r="A155" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>11</v>
@@ -4328,26 +4319,26 @@
         <v>20</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" ht="18.75" customHeight="1" spans="1:4">
       <c r="A156" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C156" s="8">
         <v>65535</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" ht="18.75" customHeight="1" spans="1:4">
       <c r="A157" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>11</v>
@@ -4356,36 +4347,36 @@
         <v>20</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" ht="18.75" customHeight="1" spans="1:4">
       <c r="A158" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="159" ht="18.75" customHeight="1" spans="1:4">
       <c r="A159" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" ht="18.75" customHeight="1" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -4402,7 +4393,7 @@
     </row>
     <row r="162" ht="18.75" customHeight="1" spans="1:5">
       <c r="A162" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -4428,7 +4419,7 @@
     </row>
     <row r="164" ht="18.75" customHeight="1" spans="1:5">
       <c r="A164" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>7</v>
@@ -4437,7 +4428,7 @@
         <v>20</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>9</v>
@@ -4460,7 +4451,7 @@
     </row>
     <row r="166" ht="18.75" customHeight="1" spans="1:5">
       <c r="A166" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>7</v>
@@ -4469,41 +4460,41 @@
         <v>20</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E166" s="6"/>
     </row>
     <row r="167" ht="18.75" customHeight="1" spans="1:5">
       <c r="A167" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C167" s="8">
         <v>10</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E167" s="6"/>
     </row>
     <row r="168" ht="18.75" customHeight="1" spans="1:5">
       <c r="A168" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E168" s="6"/>
     </row>
     <row r="169" ht="18.75" customHeight="1" spans="1:5">
       <c r="A169" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>17</v>
@@ -4512,13 +4503,13 @@
         <v>3</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E169" s="6"/>
     </row>
     <row r="170" ht="18.75" customHeight="1" spans="1:5">
       <c r="A170" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>7</v>
@@ -4527,15 +4518,15 @@
         <v>20</v>
       </c>
       <c r="D170" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E170" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="171" ht="21.75" customHeight="1" spans="1:5">
       <c r="A171" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>7</v>
@@ -4544,15 +4535,15 @@
         <v>20</v>
       </c>
       <c r="D171" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E171" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="172" ht="21.75" customHeight="1" spans="1:5">
       <c r="A172" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>7</v>
@@ -4561,10 +4552,10 @@
         <v>20</v>
       </c>
       <c r="D172" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="173" ht="19.5" customHeight="1" spans="1:5">
@@ -4576,7 +4567,7 @@
     </row>
     <row r="174" ht="19.5" customHeight="1" spans="1:5">
       <c r="A174" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -4602,7 +4593,7 @@
     </row>
     <row r="176" ht="21.75" customHeight="1" spans="1:5">
       <c r="A176" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>7</v>
@@ -4611,7 +4602,7 @@
         <v>20</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>9</v>
@@ -4619,43 +4610,43 @@
     </row>
     <row r="177" ht="21.75" customHeight="1" spans="1:4">
       <c r="A177" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178" ht="21.75" customHeight="1" spans="1:4">
       <c r="A178" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="179" ht="21.75" customHeight="1" spans="1:4">
       <c r="A179" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="180" ht="21.75" customHeight="1" spans="1:4">
       <c r="A180" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>17</v>
@@ -4664,45 +4655,45 @@
         <v>3</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="181" ht="21.75" customHeight="1" spans="1:4">
       <c r="A181" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C181" s="8">
         <v>10</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" ht="21.75" customHeight="1" spans="1:4">
       <c r="A182" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C182" s="8">
         <v>10</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183" ht="21.75" customHeight="1" spans="1:4">
       <c r="A183" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="10"/>
       <c r="D183" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="184" ht="19.5" customHeight="1" spans="1:4">
@@ -4713,7 +4704,7 @@
     </row>
     <row r="185" ht="19.5" customHeight="1" spans="1:5">
       <c r="A185" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -4739,7 +4730,7 @@
     </row>
     <row r="187" ht="21.75" customHeight="1" spans="1:5">
       <c r="A187" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>7</v>
@@ -4748,7 +4739,7 @@
         <v>20</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>9</v>
@@ -4756,82 +4747,82 @@
     </row>
     <row r="188" ht="21.75" customHeight="1" spans="1:4">
       <c r="A188" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C188" s="8">
         <v>10</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="189" ht="21.75" customHeight="1" spans="1:4">
       <c r="A189" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C189" s="8">
         <v>10</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="190" ht="21.75" customHeight="1" spans="1:4">
       <c r="A190" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C190" s="8">
         <v>10</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" ht="21.75" customHeight="1" spans="1:4">
       <c r="A191" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C191" s="8">
         <v>10</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="192" ht="21.75" customHeight="1" spans="1:4">
       <c r="A192" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" ht="21.75" customHeight="1" spans="1:4">
       <c r="A193" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" ht="18.75" customHeight="1" spans="1:5">
@@ -4842,7 +4833,7 @@
       <c r="C194" s="10"/>
       <c r="D194" s="9"/>
       <c r="E194" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="195" ht="19.5" customHeight="1" spans="1:5">
@@ -4854,7 +4845,7 @@
     </row>
     <row r="196" ht="19.5" customHeight="1" spans="1:5">
       <c r="A196" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -4880,7 +4871,7 @@
     </row>
     <row r="198" ht="21.75" customHeight="1" spans="1:5">
       <c r="A198" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>7</v>
@@ -4889,15 +4880,15 @@
         <v>20</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" ht="21.75" customHeight="1" spans="1:5">
       <c r="A199" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>7</v>
@@ -4906,10 +4897,10 @@
         <v>20</v>
       </c>
       <c r="D199" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E199" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="200" ht="19.5" customHeight="1" spans="1:5">
@@ -4921,7 +4912,7 @@
     </row>
     <row r="201" ht="19.5" customHeight="1" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -4930,7 +4921,7 @@
     </row>
     <row r="202" ht="21.75" customHeight="1" spans="1:5">
       <c r="A202" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>7</v>
@@ -4939,15 +4930,15 @@
         <v>20</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" ht="18.75" customHeight="1" spans="1:5">
       <c r="A203" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>7</v>
@@ -4956,10 +4947,10 @@
         <v>20</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" ht="18.75" customHeight="1" spans="1:4">
@@ -4970,7 +4961,7 @@
     </row>
     <row r="205" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A205" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B205" s="14"/>
       <c r="C205" s="15"/>
@@ -4996,63 +4987,63 @@
     </row>
     <row r="207" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A207" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B207" s="16" t="s">
         <v>280</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>281</v>
       </c>
       <c r="C207" s="17">
         <v>10</v>
       </c>
       <c r="D207" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E207" s="16" t="s">
         <v>282</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A208" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B208" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="C208" s="17">
+        <v>20</v>
+      </c>
+      <c r="D208" s="16" t="s">
         <v>285</v>
-      </c>
-      <c r="C208" s="17">
-        <v>20</v>
-      </c>
-      <c r="D208" s="16" t="s">
-        <v>286</v>
       </c>
       <c r="E208" s="16"/>
     </row>
     <row r="209" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A209" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C209" s="17">
         <v>11</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E209" s="16"/>
     </row>
     <row r="210" ht="18.75" customHeight="1" spans="1:5">
       <c r="A210" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C210" s="17">
+        <v>20</v>
+      </c>
+      <c r="D210" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="B210" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C210" s="17">
-        <v>10</v>
-      </c>
-      <c r="D210" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="E210" s="6"/>
     </row>
@@ -5065,7 +5056,7 @@
     </row>
     <row r="212" ht="18.75" customHeight="1" spans="1:5">
       <c r="A212" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="5"/>
@@ -5091,92 +5082,92 @@
     </row>
     <row r="214" ht="18.75" customHeight="1" spans="1:5">
       <c r="A214" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C214" s="8">
         <v>20</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="215" ht="18.75" customHeight="1" spans="1:5">
       <c r="A215" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="C215" s="8">
         <v>10</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="216" ht="18.75" customHeight="1" spans="1:4">
       <c r="A216" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="D216" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="217" ht="18.75" customHeight="1" spans="1:4">
       <c r="A217" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D217" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="218" ht="18.75" customHeight="1" spans="1:4">
       <c r="A218" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>295</v>
+        <v>21</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="219" ht="18.75" customHeight="1" spans="1:4">
       <c r="A219" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" ht="18.75" customHeight="1" spans="1:4">
@@ -5187,7 +5178,7 @@
     </row>
     <row r="221" ht="18.75" customHeight="1" spans="1:5">
       <c r="A221" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="5"/>
@@ -5213,33 +5204,33 @@
     </row>
     <row r="223" ht="18.75" customHeight="1" spans="1:5">
       <c r="A223" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="C223" s="8">
         <v>10</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" ht="18.75" customHeight="1" spans="1:5">
       <c r="A224" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D224" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>9</v>
@@ -5247,83 +5238,83 @@
     </row>
     <row r="225" ht="18.75" customHeight="1" spans="1:4">
       <c r="A225" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="226" ht="18.75" customHeight="1" spans="1:5">
       <c r="A226" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C226" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="D226" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="E226" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="D226" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="227" ht="18.75" customHeight="1" spans="1:4">
       <c r="A227" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228" ht="18.75" customHeight="1" spans="1:4">
       <c r="A228" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="229" ht="18.75" customHeight="1" spans="1:5">
       <c r="A229" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C229" s="7" t="s">
+      <c r="E229" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="230" ht="18.75" customHeight="1" spans="1:4">
       <c r="A230" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B230" s="9"/>
       <c r="C230" s="10"/>
@@ -5331,7 +5322,7 @@
     </row>
     <row r="231" ht="18.75" customHeight="1" spans="1:5">
       <c r="A231" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="5"/>
@@ -5357,106 +5348,106 @@
     </row>
     <row r="233" ht="18.75" customHeight="1" spans="1:5">
       <c r="A233" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C233" s="8">
+        <v>20</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E233" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C233" s="8">
-        <v>20</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="234" ht="18.75" customHeight="1" spans="1:4">
       <c r="A234" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" ht="18.75" customHeight="1" spans="1:4">
       <c r="A235" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D235" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="236" ht="18.75" customHeight="1" spans="1:4">
       <c r="A236" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="237" ht="18.75" customHeight="1" spans="1:4">
       <c r="A237" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D237" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="238" ht="18.75" customHeight="1" spans="1:5">
       <c r="A238" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B238" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="C238" s="10">
         <v>10</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="239" ht="18.75" customHeight="1" spans="1:4">
       <c r="A239" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="240" ht="18.75" customHeight="1" spans="1:4">
@@ -5467,7 +5458,7 @@
     </row>
     <row r="241" ht="18.75" customHeight="1" spans="3:3">
       <c r="C241" s="18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="242" ht="18.75" customHeight="1" spans="1:5">
@@ -5489,34 +5480,34 @@
     </row>
     <row r="243" ht="18.75" customHeight="1" spans="1:5">
       <c r="A243" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B243" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="244" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A244" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C244" s="17">
+        <v>20</v>
+      </c>
+      <c r="D244" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="E244" s="16" t="s">
         <v>344</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C244" s="17">
-        <v>20</v>
-      </c>
-      <c r="D244" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="245" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
@@ -5528,7 +5519,7 @@
     </row>
     <row r="246" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A246" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B246" s="14"/>
       <c r="C246" s="15"/>
@@ -5554,63 +5545,63 @@
     </row>
     <row r="248" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A248" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C248" s="17">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D248" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="249" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A249" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="B249" s="16" t="s">
-        <v>308</v>
+        <v>346</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D249" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E249" s="16"/>
     </row>
     <row r="250" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A250" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B250" s="16" t="s">
-        <v>332</v>
+        <v>348</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E250" s="16"/>
     </row>
     <row r="251" ht="18.75" customHeight="1" spans="1:5">
       <c r="A251" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B251" s="16" t="s">
-        <v>332</v>
+        <v>350</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D251" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E251" s="6"/>
     </row>
@@ -5626,7 +5617,7 @@
       <c r="A254" s="19"/>
       <c r="B254" s="19"/>
       <c r="C254" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D254" s="19"/>
       <c r="E254" s="19"/>
@@ -5650,36 +5641,36 @@
     </row>
     <row r="256" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A256" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C256" s="17">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="257" ht="18.75" customHeight="1" spans="1:5">
       <c r="A257" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C257" s="8">
         <v>20</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
